--- a/data/trans_orig/INICIO_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Edad-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -562,47 +562,47 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
         </is>
       </c>
     </row>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>16/24</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,92</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,13</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,27</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,81</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,17</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,24</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15,88</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,14</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,26</t>
         </is>
       </c>
     </row>
@@ -685,54 +685,54 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,1; 16,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,47; 16,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,68; 16,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,11; 16,38</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,65; 16,69</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,86; 16,65</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,35; 16,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,68; 16,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,87; 16,63</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>25/34</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,02</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,07</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,23</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,0</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,44</t>
         </is>
       </c>
     </row>
@@ -795,54 +795,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,87; 17,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,39; 18,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,97; 18,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,44; 17,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,07; 18,23</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,75; 17,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,35; 17,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,4; 17,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,02; 17,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>35/44</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -852,47 +852,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,0</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,27</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,49</t>
+          <t>18,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,07</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>13,38</t>
+          <t>17,57</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,02</t>
         </is>
       </c>
     </row>
@@ -905,54 +905,54 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,57; 17,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,35; 17,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,65; 19,08</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,57; 17,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,0</t>
+          <t>17,41; 19,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,99; 18,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,7; 17,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>12,0; 14,0</t>
+          <t>17,02; 18,42</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,53; 18,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>16/24</t>
+          <t>45/54</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,21</t>
+          <t>16,59</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,27</t>
+          <t>16,95</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>16,03</t>
+          <t>18,46</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,21</t>
+          <t>17,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>16,24</t>
+          <t>17,04</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>15,96</t>
+          <t>18,17</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,21</t>
+          <t>16,86</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,26</t>
+          <t>16,99</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>16,0</t>
+          <t>18,32</t>
         </is>
       </c>
     </row>
@@ -1015,54 +1015,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,66; 16,74</t>
+          <t>16,13; 17,71</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>15,67; 16,9</t>
+          <t>16,3; 17,81</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 16,55</t>
+          <t>17,67; 19,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,75; 16,64</t>
+          <t>17,22; 18,19</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,82; 16,69</t>
+          <t>16,56; 17,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,48; 16,44</t>
+          <t>17,33; 19,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>15,85; 16,57</t>
+          <t>16,29; 17,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>15,87; 16,63</t>
+          <t>16,56; 17,49</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,64; 16,34</t>
+          <t>17,69; 19,01</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>25/34</t>
+          <t>55/64</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,85</t>
+          <t>16,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>17,61</t>
+          <t>18,06</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,72</t>
+          <t>17,13</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>16,9</t>
+          <t>17,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>17,23</t>
+          <t>17,62</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>18,52</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,87</t>
+          <t>16,97</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>17,44</t>
+          <t>17,85</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>16,77</t>
+          <t>17,9</t>
         </is>
       </c>
     </row>
@@ -1125,54 +1125,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,17; 17,91</t>
+          <t>16,17; 17,02</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 18,38</t>
+          <t>17,08; 19,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,11; 17,3</t>
+          <t>16,44; 18,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>16,0; 17,88</t>
+          <t>17,13; 18,18</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,83</t>
+          <t>16,67; 19,43</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,41; 17,32</t>
+          <t>17,68; 19,82</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,6</t>
+          <t>16,69; 17,34</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>17,0; 17,9</t>
+          <t>17,07; 19,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,44; 17,18</t>
+          <t>17,31; 18,82</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>35/44</t>
+          <t>65/74</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>17,06</t>
+          <t>16,34</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>18,27</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>17,21</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>18,2</t>
+          <t>19,18</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>17,66</t>
+          <t>19,89</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>17,16</t>
+          <t>19,55</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>18,02</t>
+          <t>18,21</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>17,01</t>
+          <t>18,17</t>
         </is>
       </c>
     </row>
@@ -1235,54 +1235,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,48; 17,79</t>
+          <t>15,84; 16,86</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>17,63; 18,98</t>
+          <t>16,14; 18,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,45; 17,41</t>
+          <t>16,22; 18,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>17,32; 19,5</t>
+          <t>18,14; 20,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,92; 18,44</t>
+          <t>18,04; 22,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,82; 17,54</t>
+          <t>18,22; 21,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,17</t>
+          <t>16,88; 18,05</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>17,51; 18,54</t>
+          <t>17,22; 19,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,34</t>
+          <t>17,32; 19,29</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>45/54</t>
+          <t>75 y más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,89</t>
+          <t>17,02</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>18,46</t>
+          <t>15,59</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17,18</t>
+          <t>18,7</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>20,73</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>18,17</t>
+          <t>20,96</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,47</t>
+          <t>22,95</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,03</t>
+          <t>17,75</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>18,32</t>
+          <t>17,67</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>17,3</t>
+          <t>19,97</t>
         </is>
       </c>
     </row>
@@ -1345,54 +1345,54 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,32; 17,78</t>
+          <t>16,37; 17,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,64; 19,49</t>
+          <t>14,29; 17,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,76</t>
+          <t>17,32; 20,49</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,68; 17,79</t>
+          <t>18,73; 26,36</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>17,37; 19,24</t>
+          <t>17,92; 25,09</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>17,17; 17,88</t>
+          <t>21,02; 26,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,59; 17,51</t>
+          <t>17,05; 18,96</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,71; 19,04</t>
+          <t>16,09; 20,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,96; 17,66</t>
+          <t>18,8; 21,51</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>55/64</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>17,93</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>17,13</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,41</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,67</t>
+          <t>17,56</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>18,52</t>
+          <t>17,61</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>17,59</t>
+          <t>18,25</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>17,81</t>
+          <t>16,96</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>17,9</t>
+          <t>17,3</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,87</t>
+          <t>17,99</t>
         </is>
       </c>
     </row>
@@ -1455,398 +1455,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,97; 19,49</t>
+          <t>16,27; 16,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>16,41; 18,11</t>
+          <t>16,71; 17,45</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>16,11; 16,73</t>
+          <t>17,43; 18,17</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,57; 19,21</t>
+          <t>17,3; 17,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>17,71; 19,8</t>
+          <t>17,2; 18,14</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,26; 18,07</t>
+          <t>17,91; 18,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,09; 18,87</t>
+          <t>16,64; 17,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>17,3; 18,69</t>
+          <t>17,04; 17,63</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>16,63; 17,12</t>
+          <t>17,71; 18,29</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>65/74</t>
-        </is>
-      </c>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>17,24</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>17,21</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>16,32</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>20,7</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>19,55</t>
-        </is>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>19,23</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>18,48</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>18,17</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>17,19</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>16,29; 18,62</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>16,34; 18,62</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>15,99; 16,67</t>
-        </is>
-      </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>18,75; 23,62</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>18,21; 21,49</t>
-        </is>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>18,43; 20,64</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>17,45; 19,82</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>17,28; 19,25</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>16,81; 17,66</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>75 y más</t>
-        </is>
-      </c>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>15,36</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>18,7</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>16,46</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>21,13</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>22,95</t>
-        </is>
-      </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>20,2</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>17,12</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>19,97</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>17,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>13,91; 16,83</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>17,4; 20,24</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>16,01; 16,93</t>
-        </is>
-      </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>18,19; 25,25</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>21,0; 25,86</t>
-        </is>
-      </c>
-      <c r="H23" s="2" t="inlineStr">
-        <is>
-          <t>18,52; 24,17</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>15,59; 19,33</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>18,84; 21,38</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>16,53; 17,74</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>17,03</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>17,78</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>16,64</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>17,82</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>18,24</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>17,44</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>17,36</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>17,99</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>16,97</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>16,72; 17,44</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>17,46; 18,11</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>16,47; 16,83</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>17,41; 18,33</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>17,88; 18,7</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>17,25; 17,67</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>17,09; 17,65</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>17,73; 18,28</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>16,84; 17,11</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Fuente: Determinantes Ambientales de la Salud: proyecto multicéntrico a partir de Encuestas Poblacionales de la salud (proyecto DAS-EP, EXPEDIENTE ISCIII - PI22/01051 y PI22/00512)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="12">
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A22:A23"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="F1:H1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A20:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_orig/INICIO_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Edad-trans_orig.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Edad media en la que empezaron a consumir tabaco en años</t>
+          <t>Edad media en la que empezaron a consumir tabaco en años (tasa de respuesta: 98,19%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INICIO_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Edad-trans_orig.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,1; 16,67</t>
+          <t>15,07; 16,67</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,68; 16,93</t>
+          <t>15,63; 16,86</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,11; 16,38</t>
+          <t>15,18; 16,44</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,86; 16,65</t>
+          <t>15,83; 16,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,35; 16,4</t>
+          <t>15,32; 16,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>15,87; 16,63</t>
+          <t>15,9; 16,64</t>
         </is>
       </c>
     </row>
@@ -795,7 +795,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,87; 17,85</t>
+          <t>15,92; 17,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -805,12 +805,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,97; 18,31</t>
+          <t>16,93; 18,26</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,44; 17,88</t>
+          <t>16,45; 17,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -820,12 +820,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,75; 17,8</t>
+          <t>16,68; 17,81</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,35; 17,59</t>
+          <t>16,34; 17,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -835,7 +835,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,02; 17,88</t>
+          <t>17,0; 17,87</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,97</t>
+          <t>16,57; 18,06</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -915,12 +915,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,65; 19,08</t>
+          <t>17,64; 19,04</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 17,41</t>
+          <t>16,6; 17,44</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,12 +930,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,99; 18,48</t>
+          <t>16,94; 18,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,7; 17,53</t>
+          <t>16,71; 17,63</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,53; 18,58</t>
+          <t>17,57; 18,57</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,13; 17,71</t>
+          <t>16,11; 17,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,12 +1025,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,5</t>
+          <t>17,58; 19,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,22; 18,19</t>
+          <t>17,25; 18,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1040,12 +1040,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,33; 19,2</t>
+          <t>17,31; 19,17</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,29; 17,66</t>
+          <t>16,26; 17,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,69; 19,01</t>
+          <t>17,75; 18,99</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,17; 17,02</t>
+          <t>16,19; 17,01</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1135,12 +1135,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,44; 18,05</t>
+          <t>16,43; 18,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,13; 18,18</t>
+          <t>17,15; 18,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1150,12 +1150,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,68; 19,82</t>
+          <t>17,75; 19,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,69; 17,34</t>
+          <t>16,66; 17,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,31; 18,82</t>
+          <t>17,33; 18,68</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,84; 16,86</t>
+          <t>15,83; 16,79</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16,22; 18,47</t>
+          <t>16,21; 18,76</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,14; 20,6</t>
+          <t>18,1; 20,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1260,12 +1260,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>18,22; 21,47</t>
+          <t>18,3; 21,73</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,88; 18,05</t>
+          <t>16,88; 18,06</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>17,32; 19,29</t>
+          <t>17,25; 19,13</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,37; 17,85</t>
+          <t>16,37; 17,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,32; 20,49</t>
+          <t>17,46; 20,34</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,73; 26,36</t>
+          <t>18,72; 25,74</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1370,12 +1370,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,02; 26,27</t>
+          <t>21,05; 26,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,05; 18,96</t>
+          <t>17,0; 18,99</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>18,8; 21,51</t>
+          <t>18,79; 21,4</t>
         </is>
       </c>
     </row>
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,27; 16,91</t>
+          <t>16,32; 16,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1465,12 +1465,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>17,43; 18,17</t>
+          <t>17,46; 18,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,86</t>
+          <t>17,3; 17,88</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1480,12 +1480,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>17,91; 18,72</t>
+          <t>17,89; 18,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,22</t>
+          <t>16,56; 17,2</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1495,7 +1495,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>17,71; 18,29</t>
+          <t>17,74; 18,26</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/INICIO_TABACO-Edad-trans_orig.xlsx
+++ b/data/trans_orig/INICIO_TABACO-Edad-trans_orig.xlsx
@@ -567,42 +567,42 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>15,92</t>
+          <t>16,02</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
+          <t>16,27</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>16,13</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>16,27</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>15,81</t>
+          <t>16,06</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>16,24</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>16,17</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>16,24</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>15,88</t>
+          <t>16,04</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>16,26</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
           <t>16,14</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>16,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,07; 16,67</t>
+          <t>15,34; 16,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>15,63; 16,86</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>15,47; 16,73</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>15,63; 16,86</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,18; 16,44</t>
+          <t>15,4; 16,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>15,83; 16,68</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>15,65; 16,69</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>15,83; 16,68</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>15,32; 16,4</t>
+          <t>15,51; 16,49</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
+          <t>15,9; 16,64</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
           <t>15,68; 16,54</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>15,9; 16,64</t>
         </is>
       </c>
     </row>
@@ -742,47 +742,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>16,82</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>17,61</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>17,02</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>17,61</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,07</t>
+          <t>17,21</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>17,23</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>16,97</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>17,23</t>
-        </is>
-      </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>17,0</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>17,44</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>17,0</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>17,44</t>
         </is>
       </c>
     </row>
@@ -795,47 +795,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>15,92; 17,87</t>
+          <t>15,99; 17,58</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>16,93; 18,26</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>16,39; 18,16</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>16,93; 18,26</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,45; 17,87</t>
+          <t>16,6; 17,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>16,68; 17,81</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>16,07; 18,23</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>16,68; 17,81</t>
-        </is>
-      </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>16,34; 17,62</t>
+          <t>16,45; 17,6</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
+          <t>17,0; 17,87</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
           <t>16,4; 17,71</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>17,0; 17,87</t>
         </is>
       </c>
     </row>
@@ -857,14 +857,14 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
+          <t>18,27</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>16,99</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>18,27</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
           <t>16,96</t>
@@ -872,27 +872,27 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>17,66</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>18,41</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>17,66</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,07</t>
+          <t>17,08</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>18,02</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
           <t>17,57</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>18,02</t>
         </is>
       </c>
     </row>
@@ -905,47 +905,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,57; 18,06</t>
+          <t>16,64; 17,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
+          <t>17,64; 19,04</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>16,35; 17,77</t>
         </is>
       </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>17,64; 19,04</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,6; 17,44</t>
+          <t>16,6; 17,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>16,94; 18,49</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>17,41; 19,96</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>16,94; 18,49</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,63</t>
+          <t>16,73; 17,57</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>17,57; 18,57</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
           <t>17,02; 18,42</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>17,57; 18,57</t>
         </is>
       </c>
     </row>
@@ -962,47 +962,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,59</t>
+          <t>17,37</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
+          <t>18,46</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>16,95</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>18,46</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,63</t>
+          <t>17,87</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>18,17</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>17,04</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>18,17</t>
-        </is>
-      </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>16,86</t>
+          <t>17,6</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>18,32</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
           <t>16,99</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>18,32</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1015,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>16,11; 17,64</t>
+          <t>16,82; 18,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
+          <t>17,58; 19,45</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>16,3; 17,81</t>
         </is>
       </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>17,58; 19,45</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,25; 18,26</t>
+          <t>17,39; 18,57</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>17,31; 19,17</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>16,56; 17,58</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>17,31; 19,17</t>
-        </is>
-      </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>16,26; 17,66</t>
+          <t>17,21; 18,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
+          <t>17,75; 18,99</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
           <t>16,56; 17,49</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>17,75; 18,99</t>
         </is>
       </c>
     </row>
@@ -1072,47 +1072,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>16,58</t>
+          <t>16,63</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
+          <t>17,13</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>18,06</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>17,13</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>17,58</t>
+          <t>17,7</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>18,52</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>17,62</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>18,52</t>
-        </is>
-      </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>16,97</t>
+          <t>17,07</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>17,9</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>17,85</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>17,9</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1125,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,19; 17,01</t>
+          <t>16,22; 17,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
+          <t>16,43; 18,11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>17,08; 19,88</t>
         </is>
       </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>16,43; 18,11</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,15; 18,17</t>
+          <t>17,28; 18,32</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>17,75; 19,69</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>16,67; 19,43</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>17,75; 19,69</t>
-        </is>
-      </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,32</t>
+          <t>16,76; 17,43</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
+          <t>17,33; 18,68</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>17,07; 19,0</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>17,33; 18,68</t>
         </is>
       </c>
     </row>
@@ -1182,47 +1182,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
+          <t>17,21</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>16,96</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>17,21</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>19,18</t>
+          <t>19,05</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>19,55</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>19,89</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>19,55</t>
-        </is>
-      </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>17,37</t>
+          <t>17,34</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
+          <t>18,17</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>18,21</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>18,17</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1235,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,83; 16,79</t>
+          <t>15,91; 16,83</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>16,21; 18,76</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>16,14; 18,25</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>16,21; 18,76</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>18,1; 20,72</t>
+          <t>17,98; 20,53</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>18,3; 21,73</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>18,04; 22,83</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>18,3; 21,73</t>
-        </is>
-      </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>16,88; 18,06</t>
+          <t>16,86; 18,0</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
+          <t>17,25; 19,13</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
           <t>17,22; 19,57</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>17,25; 19,13</t>
         </is>
       </c>
     </row>
@@ -1292,47 +1292,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,02</t>
+          <t>17,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>18,7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>15,59</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>18,7</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>20,73</t>
+          <t>20,92</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>22,95</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>20,96</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>22,95</t>
-        </is>
-      </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>17,75</t>
+          <t>17,78</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>19,97</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
           <t>17,67</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>19,97</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1345,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,37; 17,95</t>
+          <t>16,38; 17,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
+          <t>17,46; 20,34</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>14,29; 17,17</t>
         </is>
       </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>17,46; 20,34</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>18,72; 25,74</t>
+          <t>18,88; 25,89</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>21,05; 26,08</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>17,92; 25,09</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>21,05; 26,08</t>
-        </is>
-      </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,0; 18,99</t>
+          <t>17,06; 18,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
+          <t>18,79; 21,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
           <t>16,09; 20,05</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>18,79; 21,4</t>
         </is>
       </c>
     </row>
@@ -1402,47 +1402,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>16,63</t>
+          <t>16,84</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
+          <t>17,78</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
           <t>17,05</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>17,78</t>
-        </is>
-      </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>17,66</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
+          <t>18,25</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
           <t>17,61</t>
         </is>
       </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>18,25</t>
-        </is>
-      </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>16,96</t>
+          <t>17,18</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
+          <t>17,99</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
           <t>17,3</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>17,99</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1455,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,92</t>
+          <t>16,6; 17,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
+          <t>17,46; 18,16</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
           <t>16,71; 17,45</t>
         </is>
       </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>17,46; 18,16</t>
-        </is>
-      </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>17,3; 17,88</t>
+          <t>17,4; 17,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
+          <t>17,89; 18,72</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
           <t>17,2; 18,14</t>
         </is>
       </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>17,89; 18,72</t>
-        </is>
-      </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,56; 17,2</t>
+          <t>17,01; 17,38</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
+          <t>17,74; 18,26</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
           <t>17,04; 17,63</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>17,74; 18,26</t>
         </is>
       </c>
     </row>
